--- a/medicine/Sexualité et sexologie/Préférence_sexuelle/Préférence_sexuelle.xlsx
+++ b/medicine/Sexualité et sexologie/Préférence_sexuelle/Préférence_sexuelle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pr%C3%A9f%C3%A9rence_sexuelle</t>
+          <t>Préférence_sexuelle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les préférences sexuelles correspondent au développement, en raison des expériences sexuelles vécues au cours de la vie, de préférences pour certaines activités et caractéristiques : baiser, coït vaginal ou anal, fellation… ; les positions sexuelles, l'utilisation de certains jouets sexuels ; les seins et leur volume, la forme du pénis ou la couleur des cheveux ; le genre, l'âge et le nombre de(s) partenaire(s) ; les lieux et l'heure de l'activité sexuelle, etc.
-Chez les mammifères non-primates (rongeurs, canidés, félidés, bovidés, équidés…), il existe des processus neurobiologiques spécifiques et des caractéristiques particulières qui sont à l'origine de l'apparition de préférences pour certains partenaires. Chez les hominidés (être humain, chimpanzé, bonobo, orang outan, gorille), en raison de l'évolution de plusieurs facteurs biologiques majeurs (hormones, phéromones, réflexes copulatoires, cognition…) du comportement sexuel[1],[2],[3], il se forme surtout des préférences sexuelles[4].
+Chez les mammifères non-primates (rongeurs, canidés, félidés, bovidés, équidés…), il existe des processus neurobiologiques spécifiques et des caractéristiques particulières qui sont à l'origine de l'apparition de préférences pour certains partenaires. Chez les hominidés (être humain, chimpanzé, bonobo, orang outan, gorille), en raison de l'évolution de plusieurs facteurs biologiques majeurs (hormones, phéromones, réflexes copulatoires, cognition…) du comportement sexuel il se forme surtout des préférences sexuelles.
 Chez les animaux qui ont un système nerveux très simple, comme les insectes, il n'existe pas de préférences sexuelles.
 </t>
         </is>
